--- a/testData/Automation_TestData.xlsx
+++ b/testData/Automation_TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation Projects\POM_Framework\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation Projects\POM_framework\POM_Framework_mavenBuild\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C409D5A6-A34E-4A57-B7C0-228D57744384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F38B5BE-5F22-4E79-B285-C27016BFE715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{310E4D0D-2B03-4925-8BE2-510E369C35A6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Execute</t>
   </si>
@@ -51,23 +51,89 @@
     <t>Y</t>
   </si>
   <si>
-    <t>TC01_Launch_Application_Test</t>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
-    <t>END</t>
-  </si>
-  <si>
     <t>Edge</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>TC01_Launch_Application_SignUpUser_Test</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>P-code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>ConfirmPasswrd</t>
+  </si>
+  <si>
+    <t>testUser@automation.com</t>
+  </si>
+  <si>
+    <t>123-California</t>
+  </si>
+  <si>
+    <t>Sanramon</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>DemoUser1</t>
+  </si>
+  <si>
+    <t>VGVzdFVzZXJAMTIzNDU=</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>TC02_SignIn_Application_CaptureServices_Test</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +145,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,16 +175,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,18 +501,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255779BA-9174-4DD5-B572-0AC152DA8E7B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,24 +526,110 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>14567788</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>11111</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -473,6 +638,10 @@
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{BD7DA127-1AF5-4656-A374-C369FD98F876}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/testData/Automation_TestData.xlsx
+++ b/testData/Automation_TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation Projects\POM_framework\POM_Framework_mavenBuild\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F38B5BE-5F22-4E79-B285-C27016BFE715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E559F22-C189-4D54-B263-B87AE8817925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{310E4D0D-2B03-4925-8BE2-510E369C35A6}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
